--- a/SAP/SAP Job related/SAP SD interview prep.xlsx
+++ b/SAP/SAP Job related/SAP SD interview prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\SAP Job related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EB9EE2-D5D1-4FAE-8CF0-45739A6EBAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A820A-EB52-46F6-8930-072583270F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="3" r:id="rId1"/>
@@ -3586,7 +3586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3594,34 +3594,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3658,13 +3649,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3711,21 +3696,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3748,9 +3731,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3770,26 +3750,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3818,9 +3788,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3831,25 +3798,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3866,35 +3823,35 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3927,6 +3884,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3957,15 +3953,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3984,36 +3971,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4065,10 +4022,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4083,16 +4040,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4494,61 +4451,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="21" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="132" t="s">
         <v>525</v>
       </c>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="133" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -4573,101 +4530,101 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="232.54296875" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.1796875" style="90" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="89"/>
+    <col min="1" max="1" width="232.54296875" style="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.1796875" style="76" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="216" x14ac:dyDescent="0.8">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="77" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.8">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="77" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="77" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.8">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="77" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="77" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="77" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="77" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.8">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="76" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="396" x14ac:dyDescent="0.8">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="77" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="77" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="216" x14ac:dyDescent="0.8">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="77" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="77" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="76" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="288" x14ac:dyDescent="0.8">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="76" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="77" t="s">
         <v>444</v>
       </c>
     </row>
@@ -4779,7 +4736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23139EA4-E752-488A-B7BD-F52B34A312C8}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -4792,208 +4749,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" s="18"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="18"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="18"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="18"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="18"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="18"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="18"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="18"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="18"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="18"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="18"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="18"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="18"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="18"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="18"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="18"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="18"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="18"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="18"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="18"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="18"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="18"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="18"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="18"/>
-      <c r="C56" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5020,1112 +4834,1097 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="173" t="s">
+      <c r="D2" s="145" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="175">
+      <c r="E2" s="147">
         <v>44436</v>
       </c>
-      <c r="F2" s="178" t="s">
+      <c r="F2" s="135" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="276" x14ac:dyDescent="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="D3" s="174"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="174"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="35" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="174"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="176"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="174"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="37" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
     </row>
     <row r="21" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="D22" s="174"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
     </row>
     <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="45" t="s">
         <v>302</v>
       </c>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="146" t="s">
         <v>303</v>
       </c>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="145" t="s">
         <v>304</v>
       </c>
-      <c r="F25" s="173" t="s">
+      <c r="F25" s="145" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="173"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="145"/>
     </row>
     <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="173"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="145"/>
     </row>
     <row r="28" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="173"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="145"/>
     </row>
     <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="173"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="145"/>
     </row>
     <row r="30" spans="1:6" ht="322" x14ac:dyDescent="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="173"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="145"/>
     </row>
     <row r="31" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="173"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="145"/>
     </row>
     <row r="32" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="173"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="145"/>
     </row>
     <row r="33" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="173"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="145"/>
     </row>
     <row r="34" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="173"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="145"/>
     </row>
     <row r="35" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="173"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="145"/>
     </row>
     <row r="36" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="174"/>
-      <c r="E36" s="174"/>
-      <c r="F36" s="173"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="145"/>
     </row>
     <row r="37" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="173"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="145"/>
     </row>
     <row r="38" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="173"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="145"/>
     </row>
     <row r="39" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="34" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="173"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="145"/>
     </row>
     <row r="40" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="173"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="145"/>
     </row>
     <row r="41" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D41" s="174"/>
-      <c r="E41" s="174"/>
-      <c r="F41" s="173"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="145"/>
     </row>
     <row r="42" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="D42" s="174"/>
-      <c r="E42" s="174"/>
-      <c r="F42" s="173"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="145"/>
     </row>
     <row r="43" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="D45" s="178" t="s">
+      <c r="D45" s="135" t="s">
         <v>335</v>
       </c>
-      <c r="E45" s="164" t="s">
+      <c r="E45" s="138" t="s">
         <v>336</v>
       </c>
-      <c r="F45" s="178" t="s">
+      <c r="F45" s="135" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="D46" s="176"/>
-      <c r="E46" s="165"/>
-      <c r="F46" s="176"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="136"/>
     </row>
     <row r="47" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="D47" s="176"/>
-      <c r="E47" s="165"/>
-      <c r="F47" s="176"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="136"/>
     </row>
     <row r="48" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="165"/>
-      <c r="F48" s="176"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="136"/>
     </row>
     <row r="49" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A49" s="41" t="s">
+      <c r="A49" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="176"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="176"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="139"/>
+      <c r="F49" s="136"/>
     </row>
     <row r="50" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A50" s="41" t="s">
+      <c r="A50" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="D50" s="176"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="176"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="136"/>
     </row>
     <row r="51" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="D51" s="176"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="176"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="136"/>
     </row>
     <row r="52" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="176"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="136"/>
     </row>
     <row r="53" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="34" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="56" t="s">
+      <c r="C53" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="D53" s="176"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="176"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="136"/>
     </row>
     <row r="54" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A54" s="41" t="s">
+      <c r="A54" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="176"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="136"/>
     </row>
     <row r="55" spans="1:6" ht="225" x14ac:dyDescent="1">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="D55" s="177"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="177"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="137"/>
     </row>
     <row r="56" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="34" t="s">
         <v>390</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="D57" s="156" t="s">
+      <c r="D57" s="150" t="s">
         <v>396</v>
       </c>
-      <c r="E57" s="158"/>
-      <c r="F57" s="179" t="s">
+      <c r="E57" s="152"/>
+      <c r="F57" s="141" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="D58" s="157"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="180"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="142"/>
     </row>
     <row r="59" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="D59" s="157"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="180"/>
+      <c r="D59" s="151"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="142"/>
     </row>
     <row r="60" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="141" t="s">
+      <c r="C60" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="D60" s="157"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="180"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="142"/>
     </row>
     <row r="61" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="D61" s="157"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="180"/>
+      <c r="D61" s="151"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="142"/>
     </row>
     <row r="62" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="D62" s="157"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="181"/>
+      <c r="D62" s="151"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="143"/>
     </row>
     <row r="63" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A63" s="140"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
     </row>
     <row r="64" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="D64" s="182" t="s">
+      <c r="D64" s="144" t="s">
         <v>500</v>
       </c>
-      <c r="E64" s="173" t="s">
+      <c r="E64" s="145" t="s">
         <v>527</v>
       </c>
-      <c r="F64" s="154" t="s">
+      <c r="F64" s="148" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="141" t="s">
+      <c r="C65" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="D65" s="182"/>
-      <c r="E65" s="174"/>
-      <c r="F65" s="155"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="149"/>
     </row>
     <row r="66" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="D66" s="182"/>
-      <c r="E66" s="174"/>
-      <c r="F66" s="155"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="149"/>
     </row>
     <row r="67" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="182"/>
-      <c r="E67" s="174"/>
-      <c r="F67" s="155"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="149"/>
     </row>
     <row r="68" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="D68" s="182"/>
-      <c r="E68" s="174"/>
-      <c r="F68" s="155"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="149"/>
     </row>
     <row r="69" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A69" s="51"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
     </row>
     <row r="70" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="B70" s="41"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="161" t="s">
+      <c r="B70" s="34"/>
+      <c r="C70" s="134"/>
+      <c r="D70" s="155" t="s">
         <v>529</v>
       </c>
-      <c r="E70" s="164" t="s">
+      <c r="E70" s="138" t="s">
         <v>530</v>
       </c>
-      <c r="F70" s="167" t="s">
+      <c r="F70" s="158" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="B71" s="41"/>
-      <c r="C71" s="153"/>
-      <c r="D71" s="162"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="168"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="134"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="139"/>
+      <c r="F71" s="159"/>
     </row>
     <row r="72" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="34" t="s">
         <v>533</v>
       </c>
-      <c r="B72" s="153"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="162"/>
-      <c r="E72" s="165"/>
-      <c r="F72" s="168"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="134"/>
+      <c r="D72" s="156"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="159"/>
     </row>
     <row r="73" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="B73" s="153"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="169"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="134"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="160"/>
     </row>
     <row r="74" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A74" s="170"/>
-      <c r="B74" s="171"/>
-      <c r="C74" s="171"/>
-      <c r="D74" s="171"/>
-      <c r="E74" s="171"/>
-      <c r="F74" s="172"/>
+      <c r="A74" s="161"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="162"/>
+      <c r="F74" s="163"/>
     </row>
     <row r="75" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="159"/>
-      <c r="E75" s="160" t="s">
+      <c r="C75" s="34"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="154" t="s">
         <v>546</v>
       </c>
-      <c r="F75" s="159" t="s">
+      <c r="F75" s="153" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A76" s="41" t="s">
+      <c r="A76" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="34" t="s">
         <v>542</v>
       </c>
-      <c r="D76" s="159"/>
-      <c r="E76" s="159"/>
-      <c r="F76" s="159"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="153"/>
     </row>
     <row r="77" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="34" t="s">
         <v>536</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="34" t="s">
         <v>544</v>
       </c>
-      <c r="D77" s="159"/>
-      <c r="E77" s="159"/>
-      <c r="F77" s="159"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="153"/>
+      <c r="F77" s="153"/>
     </row>
     <row r="78" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="34" t="s">
         <v>543</v>
       </c>
-      <c r="D78" s="159"/>
-      <c r="E78" s="159"/>
-      <c r="F78" s="159"/>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="153"/>
     </row>
     <row r="79" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="D79" s="159"/>
-      <c r="E79" s="159"/>
-      <c r="F79" s="159"/>
+      <c r="D79" s="153"/>
+      <c r="E79" s="153"/>
+      <c r="F79" s="153"/>
     </row>
     <row r="80" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A80" s="39"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
     </row>
     <row r="81" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A81" s="49" t="s">
+      <c r="A81" s="42" t="s">
         <v>547</v>
       </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
     <mergeCell ref="F75:F79"/>
@@ -6133,6 +5932,21 @@
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
     <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6144,14 +5958,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB8A167-68A9-4C79-B2B1-A6D3124E05D6}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="65.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
@@ -6165,512 +5979,503 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" x14ac:dyDescent="0.35">
-      <c r="A1" s="62"/>
-      <c r="B1" s="186" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="187"/>
+      <c r="C1" s="168"/>
     </row>
     <row r="2" spans="1:12" ht="92" x14ac:dyDescent="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="56" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="138" x14ac:dyDescent="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="56" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="138" x14ac:dyDescent="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="56" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="56" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="56" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="92" x14ac:dyDescent="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="56" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="56" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="138" x14ac:dyDescent="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="46" x14ac:dyDescent="1">
-      <c r="A12" s="190" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" ht="46" x14ac:dyDescent="1">
+      <c r="A12" s="171" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A13" s="191"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="172"/>
+      <c r="B13" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="11"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A14" s="191"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="172"/>
+      <c r="B14" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="12"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="12"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A15" s="191"/>
-      <c r="B15" s="77" t="s">
+      <c r="A15" s="172"/>
+      <c r="B15" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="66" t="s">
         <v>488</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="12"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A16" s="192"/>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="42"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A18" s="71"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="42"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A19" s="183" t="s">
+      <c r="A19" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A20" s="184"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="165"/>
+      <c r="B20" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="34" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A21" s="184"/>
-      <c r="B21" s="83" t="s">
+      <c r="A21" s="165"/>
+      <c r="B21" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="139" t="s">
+      <c r="C21" s="120" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A22" s="188"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="169"/>
+      <c r="B22" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="34" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A23" s="188"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="169"/>
+      <c r="B23" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="34" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A24" s="184"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="165"/>
+      <c r="B24" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="120" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A25" s="184"/>
-      <c r="B25" s="83" t="s">
+      <c r="A25" s="165"/>
+      <c r="B25" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="34" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A26" s="184"/>
-      <c r="B26" s="83" t="s">
+      <c r="A26" s="165"/>
+      <c r="B26" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="35" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A27" s="188"/>
-      <c r="B27" s="83" t="s">
+      <c r="A27" s="169"/>
+      <c r="B27" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="35" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A28" s="189"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="170"/>
+      <c r="B28" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A30" s="63"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="49"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="42"/>
     </row>
     <row r="31" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A31" s="183" t="s">
+      <c r="A31" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="34" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A32" s="188"/>
-      <c r="B32" s="83" t="s">
+      <c r="A32" s="169"/>
+      <c r="B32" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="73" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A33" s="188"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="169"/>
+      <c r="B33" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="73" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A34" s="184"/>
-      <c r="B34" s="87" t="s">
+      <c r="A34" s="165"/>
+      <c r="B34" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="35" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="92.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A35" s="185"/>
-      <c r="B35" s="87" t="s">
+      <c r="A35" s="166"/>
+      <c r="B35" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="84" t="s">
+      <c r="C35" s="35" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="42"/>
     </row>
     <row r="37" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="49"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="42"/>
     </row>
     <row r="38" spans="1:3" ht="184" x14ac:dyDescent="1">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="84" t="s">
+      <c r="C38" s="35" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="73" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A41" s="71"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="49"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="42"/>
     </row>
     <row r="42" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="164" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="34" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A43" s="185"/>
-      <c r="B43" s="64" t="s">
+      <c r="A43" s="166"/>
+      <c r="B43" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="73" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="42"/>
     </row>
     <row r="45" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A45" s="71"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="49"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="42"/>
     </row>
     <row r="46" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="34" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A47" s="184"/>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="165"/>
+      <c r="B47" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="34" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A48" s="184"/>
-      <c r="B48" s="64" t="s">
+      <c r="A48" s="165"/>
+      <c r="B48" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="34" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A49" s="184"/>
-      <c r="B49" s="64" t="s">
+      <c r="A49" s="165"/>
+      <c r="B49" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="34" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A50" s="185"/>
-      <c r="B50" s="64" t="s">
+      <c r="A50" s="166"/>
+      <c r="B50" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="34" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A51" s="71"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="49"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="42"/>
     </row>
     <row r="52" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A52" s="71"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="49"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="42"/>
     </row>
     <row r="53" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="164" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A54" s="184"/>
-      <c r="B54" s="64" t="s">
+      <c r="A54" s="165"/>
+      <c r="B54" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A55" s="185"/>
-      <c r="B55" s="64" t="s">
+      <c r="A55" s="166"/>
+      <c r="B55" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="73" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6691,10 +6496,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68AF631-5524-47D1-8BC6-8B4AE9768BB8}">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6712,1003 +6517,895 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="92" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="92" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="95" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="95" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="95" t="s">
+      <c r="H3" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="95" t="s">
+      <c r="I3" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="95" t="s">
+      <c r="J3" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="95" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="95" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A5" s="28"/>
-      <c r="B5" s="98" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="95" t="s">
+      <c r="F5" s="79"/>
+      <c r="G5" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="95" t="s">
+      <c r="J5" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="92" x14ac:dyDescent="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="99" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="95" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="95" t="s">
+      <c r="I6" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="100" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="95" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="95" t="s">
+      <c r="H7" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="95" t="s">
+      <c r="I7" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="J7" s="95" t="s">
+      <c r="J7" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="95" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="95" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="98" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="95" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="97" t="s">
+      <c r="I9" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="95" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="95" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-    </row>
-    <row r="12" spans="1:27" s="3" customFormat="1" ht="46" x14ac:dyDescent="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" ht="46" x14ac:dyDescent="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="92" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="92" t="s">
+      <c r="C13" s="81"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="97" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="97" t="s">
+      <c r="D14" s="79"/>
+      <c r="E14" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="93"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
+      <c r="G14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="97" t="s">
+      <c r="D15" s="79"/>
+      <c r="E15" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="93"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
+      <c r="G15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="97" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="97" t="s">
+      <c r="D16" s="79"/>
+      <c r="E16" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F16" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="93"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
+      <c r="G16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="95" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="102" t="s">
+      <c r="D17" s="79"/>
+      <c r="E17" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="93"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
+      <c r="G17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="95" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C18" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="95" t="s">
+      <c r="D18" s="79"/>
+      <c r="E18" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
+      <c r="G18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="92" x14ac:dyDescent="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="104" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="87" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="97" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
+      <c r="D21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="97" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
+      <c r="D22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="97" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="28"/>
+      <c r="D23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="J24" s="81"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="J25" s="81"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="81" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="J26" s="81"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="J27" s="81"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="J28" s="81"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="J29" s="81"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="J30" s="81"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="J31" s="81"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7719,10 +7416,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1ABF05-0D0D-42ED-A0CF-7BC5645C2770}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7732,263 +7429,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="34" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="34" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="43" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="88" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="34" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="41"/>
-    </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="19" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="31" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>215</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -8007,306 +7576,306 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="64.453125" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="255.6328125" style="142" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="49"/>
+    <col min="1" max="1" width="64.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="255.6328125" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="89" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="184" x14ac:dyDescent="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="178" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="35" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A3" s="198"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="179"/>
+      <c r="B3" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="35" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="1">
-      <c r="A4" s="198"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="179"/>
+      <c r="B4" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="34" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="138" x14ac:dyDescent="1">
-      <c r="A5" s="198"/>
-      <c r="B5" s="41" t="s">
+      <c r="A5" s="179"/>
+      <c r="B5" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="35" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A6" s="198"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="179"/>
+      <c r="B6" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="35" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A7" s="199"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="180"/>
+      <c r="B7" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="35" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="1">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="1">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="178" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="35" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="1">
-      <c r="A10" s="198"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="179"/>
+      <c r="B10" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="35" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A11" s="198"/>
-      <c r="B11" s="84" t="s">
+      <c r="A11" s="179"/>
+      <c r="B11" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="35" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A12" s="198"/>
-      <c r="B12" s="84" t="s">
+      <c r="A12" s="179"/>
+      <c r="B12" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="35" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="1">
-      <c r="A13" s="198"/>
-      <c r="B13" s="57" t="s">
+      <c r="A13" s="179"/>
+      <c r="B13" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="35" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A14" s="198"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="179"/>
+      <c r="B14" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="35" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="1">
-      <c r="A15" s="198"/>
-      <c r="B15" s="200" t="s">
+      <c r="A15" s="179"/>
+      <c r="B15" s="181" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="202" t="s">
+      <c r="C15" s="183" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="1">
-      <c r="A16" s="199"/>
-      <c r="B16" s="201"/>
-      <c r="C16" s="203"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="184"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="1">
-      <c r="A17" s="170"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="172"/>
+      <c r="A17" s="161"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
     </row>
     <row r="18" spans="1:3" ht="184" x14ac:dyDescent="1">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="177" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="35" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="1">
-      <c r="A19" s="196"/>
-      <c r="B19" s="109" t="s">
+      <c r="A19" s="177"/>
+      <c r="B19" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="35" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="1">
-      <c r="A20" s="196"/>
-      <c r="B20" s="109" t="s">
+      <c r="A20" s="177"/>
+      <c r="B20" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="35" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="1">
-      <c r="A21" s="196"/>
-      <c r="B21" s="110" t="s">
+      <c r="A21" s="177"/>
+      <c r="B21" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="35" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="1">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="174" t="s">
         <v>522</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="43" t="s">
         <v>511</v>
       </c>
-      <c r="C23" s="143" t="s">
+      <c r="C23" s="124" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="1">
-      <c r="A24" s="194"/>
-      <c r="B24" s="147" t="s">
+      <c r="A24" s="175"/>
+      <c r="B24" s="128" t="s">
         <v>512</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="125" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="1">
-      <c r="A25" s="194"/>
-      <c r="B25" s="147" t="s">
+      <c r="A25" s="175"/>
+      <c r="B25" s="128" t="s">
         <v>513</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="125" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="1">
-      <c r="A26" s="194"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="144" t="s">
+      <c r="A26" s="175"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="125" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="1">
-      <c r="A27" s="194"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="144" t="s">
+      <c r="A27" s="175"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="125" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="1">
-      <c r="A28" s="194"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="145" t="s">
+      <c r="A28" s="175"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="126" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="1">
-      <c r="A29" s="194"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="145" t="s">
+      <c r="A29" s="175"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="126" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="1">
-      <c r="A30" s="195"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="146" t="s">
+      <c r="A30" s="176"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="127" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="1">
-      <c r="A31" s="193" t="s">
+      <c r="A31" s="174" t="s">
         <v>523</v>
       </c>
-      <c r="B31" s="150"/>
-      <c r="C31" s="143" t="s">
+      <c r="B31" s="131"/>
+      <c r="C31" s="124" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="1">
-      <c r="A32" s="194"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="144" t="s">
+      <c r="A32" s="175"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="125" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="1">
-      <c r="A33" s="194"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="144" t="s">
+      <c r="A33" s="175"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="125" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="1">
-      <c r="A34" s="194"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="144" t="s">
+      <c r="A34" s="175"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="125" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="1">
-      <c r="A35" s="194"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="144" t="s">
+      <c r="A35" s="175"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="125" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="1">
-      <c r="A36" s="195"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="146" t="s">
+      <c r="A36" s="176"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="127" t="s">
         <v>524</v>
       </c>
     </row>
@@ -8349,237 +7918,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="86" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="42"/>
+      <c r="H1" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="34" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="3" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="34" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="4" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="34" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="5" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="34" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="6" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="34" t="s">
         <v>362</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="34" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="7" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="81" t="s">
         <v>364</v>
       </c>
-      <c r="F7" s="95" t="s">
+      <c r="F7" s="81" t="s">
         <v>365</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="34" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="8" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="81" t="s">
         <v>366</v>
       </c>
-      <c r="F8" s="95" t="s">
+      <c r="F8" s="81" t="s">
         <v>367</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="81" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="81" t="s">
         <v>369</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="81" t="s">
         <v>371</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="95" t="s">
+      <c r="F11" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="34" t="s">
         <v>376</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="34" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="5:8" ht="46" x14ac:dyDescent="1">
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="34" t="s">
         <v>384</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="34" t="s">
         <v>385</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="5:8" ht="46" x14ac:dyDescent="1">
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="5:8" ht="46" x14ac:dyDescent="1">
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -8590,7 +8159,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217F2AAC-3408-4509-8EF8-CD3143C0B243}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -8598,509 +8167,253 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="71.26953125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.54296875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.08984375" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.90625" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="38"/>
+    <col min="1" max="1" width="71.26953125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.08984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.90625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="92" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="115"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="96"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A3" s="116"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="117" t="s">
+      <c r="A3" s="97"/>
+      <c r="E3" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="118"/>
+      <c r="N3" s="99"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A4" s="116"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="60" t="s">
+      <c r="A4" s="97"/>
+      <c r="E4" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="118"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A5" s="116"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="119" t="s">
+      <c r="A5" s="97"/>
+      <c r="E5" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="118"/>
+      <c r="N5" s="99"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="208" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="E6" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="119" t="s">
+      <c r="F6" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="118"/>
+      <c r="N6" s="99"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A7" s="116"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="118"/>
+      <c r="A7" s="97"/>
+      <c r="E7" s="190"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A8" s="116"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="118"/>
+      <c r="A8" s="97"/>
+      <c r="E8" s="191"/>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A9" s="116"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="120" t="s">
+      <c r="A9" s="97"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="118"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="96"/>
+      <c r="N9" s="99"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A10" s="116"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="121" t="s">
+      <c r="A10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="F10" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="118"/>
+      <c r="H10" s="99"/>
+      <c r="N10" s="99"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A11" s="116"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="118"/>
-    </row>
-    <row r="12" spans="1:14" s="61" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A12" s="122" t="s">
+      <c r="A11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="H11" s="99"/>
+      <c r="N11" s="99"/>
+    </row>
+    <row r="12" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="A12" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="123" t="s">
+      <c r="C12" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="124" t="s">
+      <c r="D12" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="126" t="s">
+      <c r="H12" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="127" t="s">
+      <c r="J12" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="127" t="s">
+      <c r="K12" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="59" t="s">
+      <c r="L12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="127" t="s">
+      <c r="M12" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="128" t="s">
+      <c r="N12" s="109" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="124" t="s">
+      <c r="C13" s="97"/>
+      <c r="D13" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="126" t="s">
+      <c r="H13" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="206" t="s">
+      <c r="K13" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="118"/>
+      <c r="L13" s="110"/>
+      <c r="N13" s="99"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A14" s="205"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="125" t="s">
+      <c r="A14" s="186"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="118"/>
+      <c r="H14" s="99"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="110"/>
+      <c r="N14" s="99"/>
     </row>
     <row r="15" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="135" t="s">
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="K15" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="129"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="118"/>
+      <c r="L15" s="110"/>
+      <c r="N15" s="99"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A16" s="116"/>
-      <c r="B16" s="131" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="136" t="s">
+      <c r="K16" s="117" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="136" t="s">
+      <c r="L16" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="61"/>
-      <c r="N16" s="118"/>
+      <c r="N16" s="99"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A17" s="116"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="60" t="s">
+      <c r="A17" s="97"/>
+      <c r="K17" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="118"/>
+      <c r="N17" s="99"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A18" s="116"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="137" t="s">
+      <c r="A18" s="97"/>
+      <c r="K18" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="137" t="s">
+      <c r="L18" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="61"/>
-      <c r="N18" s="118"/>
+      <c r="N18" s="99"/>
     </row>
     <row r="19" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A19" s="132"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="133"/>
-      <c r="N19" s="134"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C20" s="61"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C21" s="61"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C22" s="61"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C23" s="61"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C24" s="61"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C25" s="61"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C26" s="61"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C27" s="61"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="C28" s="61"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="A42" s="38" t="s">
+      <c r="M19" s="114"/>
+      <c r="N19" s="115"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.8">
+      <c r="A42" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.8">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.8">
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.8">
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.8">
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.8">
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.8">
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.8">
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>

--- a/SAP/SAP Job related/SAP SD interview prep.xlsx
+++ b/SAP/SAP Job related/SAP SD interview prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\SAP Job related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799A820A-EB52-46F6-8930-072583270F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC28C5A-5750-404E-A700-DAD0DB743F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="3" r:id="rId1"/>
@@ -1449,438 +1449,6 @@
   </si>
   <si>
     <r>
-      <t>Customer account groups in SAP are used </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FF202124"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to classify customers into business partner functions that fit best the nature of the business transaction</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color rgb="FF202124"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-Functionalities:
-1. Classifies customers to use for various functions
-2. Links the partner functions
-3. Controls the field of customer master</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Accounting document will be generated automatically if you have not selected the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Posting Block"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> in your billing type (VOFA).
-If this field is selected, then each and every time, you have to release it to accounting manaully by going to VF02 and select the green flag on top.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A product hierarchy is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a modeling of the hierarchical relationships between products in a tree structure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color rgb="FF202124"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.
-A product hierarchy enables the grouping of products and defines the relationship between products
-and groups at different hierarchy levels (for example, food – frozen food – pizza).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Company code, company name, city, Currency, Language</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Title, Name, street, postcal code, country, PO box, postal code, Language</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Telephone, Fax, Email</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Sales office, Description
-Assignment(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sales org+ Distribution channel+ Division&lt;--sales office</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Valuation class, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Moving Price</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delivery Type, Delivery Block, Shipping conditions,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Immediate Delivery[]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Ship cost infro Profile</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delivery relevant Billing type, Order relevant billing type, Intercompany billing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Billing block, Billing plan type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Checking group</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Business Item[], Schedule line allowed[], Item rel for Delivery[], Returns[], Weight/volume relevant[], Credit Active[], Determine cost[], 
-Pricing,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Special stock, Billing block, Billing plan, Statistical value, Billing relevance(A), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Completion rule</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Delivery block, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Movement Type, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Order Type, Item category</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Item rel for delivery[], P. req del schedule[]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Acct Assignment group</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SD Doc category(M), Posting block[], Invoice List Type[LR]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Relevant for Rebate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Acc. Determination Procedure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Document Pricing procedure</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O/p Determination Procedure, O/p type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Header partner(FK), Item Partner(FP), Text Del Procedure(03), TDP items(03), </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">1) in Item category (TAS)- </t>
     </r>
     <r>
@@ -2490,244 +2058,6 @@
   </si>
   <si>
     <t>JOBS(SA38/SM36/SM37)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CPP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Price list, Cust. Statistical group, Currency</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name, Address, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Transporation zone</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Delivery priority, Shipping conditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Delivering plant, Order combination[]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rebate[], Inco terms, Payment terms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Invoice dates, Invoice date lists, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Account Assignment Group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Tax code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Name, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Gross weight, Net weight, Volume</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, UOM, Material group</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Basic UOM, material anme</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Sales unit, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Material group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, tax classifucation, Min order qunatity, Max order quantity</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Trans grp, Loading grp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,Availaabilty group[]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Strategy group, TRT(GR processing+ Planning deleivery time)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, consumption Based Planning</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reorder Point, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MRP type, Lot size</t>
-    </r>
   </si>
   <si>
     <t>4) Maintain condition type PR00(receiving sales org and DC &amp; Material) &amp; 
@@ -2946,12 +2276,682 @@
   <si>
     <t>Have you worked with billing plans?</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Company code, company name, city, Currency, Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Title, Name, street, postcal code, country, PO box, postal code, Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Telephone, Fax, Email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sales office, Description
+Assignment(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sales org+ Distribution channel+ Division&lt;--sales office</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name, Address, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transporation zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Price list, Cust. Statistical group, Currency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delivery priority, Shipping conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Delivering plant, Order combination[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rebate[], Inco terms, Payment terms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Invoice dates, Invoice date lists, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Account Assignment Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Tax code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gross weight, Net weight, Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, UOM, Material group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Basic UOM, material anme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Sales unit, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Material group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tax classifucation, Min order qunatity, Max order quantity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trans grp, Loading grp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,Availaabilty group[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reorder Point, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MRP type, Lot size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strategy group, TRT(GR processing+ Planning deleivery time)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, consumption Based Planning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valuation class, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moving Price</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delivery Type, Delivery Block, Shipping conditions,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Immediate Delivery[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Ship cost infro Profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delivery relevant Billing type, Order relevant billing type, Intercompany billing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Billing block, Billing plan type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Checking group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Business Item[], Schedule line allowed[], Item rel for Delivery[], Returns[], Weight/volume relevant[], Credit Active[], Determine cost[], 
+Pricing,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Special stock, Billing block, Billing plan, Statistical value, Billing relevance(A), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completion rule</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delivery block, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Movement Type, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Order Type, Item category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Item rel for delivery[], P. req del schedule[]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acct Assignment group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SD Doc category(M), Posting block[], Invoice List Type[LR]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Relevant for Rebate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acc. Determination Procedure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Document Pricing procedure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O/p Determination Procedure, O/p type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Header partner(FK), Item Partner(FP), Text Del Procedure(03), TDP items(03), </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Customer account groups in SAP are used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to classify customers into business partner functions that fit best the nature of the business transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Functionalities:
+1. Classifies customers to use for various functions
+2. Links the partner functions
+3. Controls the field of customer master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Accounting document will be generated automatically if you have not selected the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Posting Block"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> in your billing type (VOFA).
+If this field is selected, then each and every time, you have to release it to accounting manaully by going to VF02 and select the green flag on top.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A product hierarchy is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a modeling of the hierarchical relationships between products in a tree structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+A product hierarchy enables the grouping of products and defines the relationship between products
+and groups at different hierarchy levels (for example, food – frozen food – pizza).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2975,35 +2975,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3018,73 +2989,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="36"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="36"/>
-      <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FF3C3C3C"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3098,11 +3004,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="16">
@@ -3586,7 +3564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3598,21 +3576,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3621,9 +3586,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3652,407 +3614,392 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4136,10 +4083,10 @@
       <xdr:rowOff>121594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1012976</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>931332</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1470176</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4440,8 +4387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B436B98-5958-46AD-B972-62B38035A988}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4451,61 +4398,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>535</v>
+      <c r="B2" s="12" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>505</v>
+      <c r="B3" s="13" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="232.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="132" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="133" t="s">
-        <v>526</v>
+      <c r="A6" s="84" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="12"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -4530,102 +4477,102 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="232.54296875" style="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="157.1796875" style="76" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="75"/>
+    <col min="1" max="1" width="232.54296875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="157.1796875" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="216" x14ac:dyDescent="0.8">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.8">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="32" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="32" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.8">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="32" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="32" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="31" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="32" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.8">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="32" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="31" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="396" x14ac:dyDescent="0.8">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="32" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="108" x14ac:dyDescent="0.8">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="32" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="216" x14ac:dyDescent="0.8">
-      <c r="A10" s="77" t="s">
-        <v>440</v>
-      </c>
-      <c r="B10" s="77" t="s">
-        <v>441</v>
+      <c r="A10" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.8">
-      <c r="A11" s="76" t="s">
-        <v>442</v>
+      <c r="A11" s="31" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="288" x14ac:dyDescent="0.8">
-      <c r="A12" s="76" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" s="77" t="s">
-        <v>444</v>
+      <c r="A12" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -4652,79 +4599,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="C1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4749,7 +4696,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4757,7 +4704,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4765,7 +4712,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4773,7 +4720,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -4781,28 +4728,28 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
@@ -4820,1124 +4767,1098 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB72728-66CB-4B23-B8AF-0F6C1FDFE305}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="152" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="121.26953125" style="152" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="152" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="152" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="152" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="255.54296875" style="152"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="150" t="s">
         <v>258</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="151" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="151" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="153" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="154" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="147">
+      <c r="E2" s="155">
         <v>44436</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="156" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="276" x14ac:dyDescent="1">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:6" ht="65" x14ac:dyDescent="0.3">
+      <c r="A3" s="151" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-    </row>
-    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A4" s="37" t="s">
+      <c r="C3" s="157" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="160" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-    </row>
-    <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A5" s="34" t="s">
+      <c r="D4" s="158"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="151" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-    </row>
-    <row r="6" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A6" s="34" t="s">
+      <c r="D5" s="158"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+    </row>
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="151" t="s">
         <v>270</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-    </row>
-    <row r="7" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A7" s="34" t="s">
+      <c r="C6" s="153" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+    </row>
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="151" t="s">
         <v>271</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-    </row>
-    <row r="8" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A8" s="34" t="s">
+      <c r="C7" s="153" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="158"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="161" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-    </row>
-    <row r="9" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A9" s="34" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="151" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="151" t="s">
         <v>275</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-    </row>
-    <row r="10" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A10" s="34" t="s">
+      <c r="D9" s="158"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+    </row>
+    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="151" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="151"/>
+      <c r="C10" s="153" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-    </row>
-    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A11" s="37" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="160" t="s">
         <v>278</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="151" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-    </row>
-    <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A12" s="37" t="s">
+      <c r="D11" s="158"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="160" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-    </row>
-    <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A13" s="34" t="s">
+      <c r="D12" s="158"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-    </row>
-    <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A14" s="37" t="s">
+      <c r="C13" s="151"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="160" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="151" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="146"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-    </row>
-    <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A15" s="34" t="s">
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="151" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="151" t="s">
         <v>286</v>
       </c>
-      <c r="D15" s="146"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-    </row>
-    <row r="16" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A16" s="34" t="s">
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="151" t="s">
         <v>287</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="151" t="s">
         <v>288</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-    </row>
-    <row r="17" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A17" s="34" t="s">
+      <c r="D16" s="158"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="151" t="s">
         <v>289</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="151" t="s">
         <v>290</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-    </row>
-    <row r="18" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A18" s="37" t="s">
+      <c r="D17" s="158"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+    </row>
+    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="160" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="D18" s="146"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-    </row>
-    <row r="19" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A19" s="37" t="s">
+      <c r="C18" s="163" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" s="158"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="160" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="151" t="s">
         <v>293</v>
       </c>
-      <c r="D19" s="146"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="136"/>
-    </row>
-    <row r="20" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A20" s="34" t="s">
+      <c r="D19" s="158"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="151" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="151" t="s">
         <v>295</v>
       </c>
-      <c r="D20" s="146"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-    </row>
-    <row r="21" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A21" s="37" t="s">
+      <c r="D20" s="158"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+    </row>
+    <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="153" t="s">
         <v>297</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-    </row>
-    <row r="22" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A22" s="37" t="s">
+      <c r="D21" s="158"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+    </row>
+    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="160" t="s">
         <v>298</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="164" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="153" t="s">
         <v>299</v>
       </c>
-      <c r="D22" s="146"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-    </row>
-    <row r="23" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A24" s="44" t="s">
+      <c r="D22" s="158"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="168" t="s">
         <v>300</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A25" s="34" t="s">
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="151" t="s">
         <v>301</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="169" t="s">
         <v>302</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="158" t="s">
         <v>303</v>
       </c>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="154" t="s">
         <v>304</v>
       </c>
-      <c r="F25" s="145" t="s">
+      <c r="F25" s="154" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="151" t="s">
         <v>306</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="145"/>
-    </row>
-    <row r="27" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A27" s="46" t="s">
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="154"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="170" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="151" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="145"/>
-    </row>
-    <row r="28" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A28" s="34" t="s">
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="154"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="151" t="s">
         <v>308</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="171" t="s">
         <v>309</v>
       </c>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="145"/>
-    </row>
-    <row r="29" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A29" s="46" t="s">
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="154"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="170" t="s">
         <v>276</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="151" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="145"/>
-    </row>
-    <row r="30" spans="1:6" ht="322" x14ac:dyDescent="1">
-      <c r="A30" s="46" t="s">
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="154"/>
+    </row>
+    <row r="30" spans="1:6" ht="65" x14ac:dyDescent="0.3">
+      <c r="A30" s="170" t="s">
         <v>310</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="172" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="145"/>
-    </row>
-    <row r="31" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A31" s="46" t="s">
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="154"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="170" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="151" t="s">
         <v>312</v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="145"/>
-    </row>
-    <row r="32" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A32" s="34" t="s">
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="154"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="151" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="169" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="145"/>
-    </row>
-    <row r="33" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A33" s="34" t="s">
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="154"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="169" t="s">
         <v>314</v>
       </c>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="145"/>
-    </row>
-    <row r="34" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A34" s="34" t="s">
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="154"/>
+    </row>
+    <row r="34" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A34" s="151" t="s">
         <v>315</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="172" t="s">
         <v>316</v>
       </c>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="145"/>
-    </row>
-    <row r="35" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A35" s="37" t="s">
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="154"/>
+    </row>
+    <row r="35" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A35" s="160" t="s">
         <v>317</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="151" t="s">
         <v>318</v>
       </c>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="172" t="s">
         <v>319</v>
       </c>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="145"/>
-    </row>
-    <row r="36" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A36" s="34" t="s">
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="154"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="151" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="169" t="s">
         <v>320</v>
       </c>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="145"/>
-    </row>
-    <row r="37" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A37" s="34" t="s">
+      <c r="D36" s="158"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="154"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="151" t="s">
         <v>217</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="169" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="145"/>
-    </row>
-    <row r="38" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A38" s="37" t="s">
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="154"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="160" t="s">
         <v>322</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="169" t="s">
         <v>323</v>
       </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="145"/>
-    </row>
-    <row r="39" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A39" s="34" t="s">
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="154"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="151" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="145"/>
-    </row>
-    <row r="40" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A40" s="34" t="s">
+      <c r="C39" s="169"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="154"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="151" t="s">
         <v>325</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="169" t="s">
         <v>326</v>
       </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="145"/>
-    </row>
-    <row r="41" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A41" s="34" t="s">
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="154"/>
+    </row>
+    <row r="41" spans="1:6" ht="52" x14ac:dyDescent="0.3">
+      <c r="A41" s="151" t="s">
         <v>327</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="C41" s="172" t="s">
         <v>328</v>
       </c>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="145"/>
-    </row>
-    <row r="42" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A42" s="34" t="s">
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="154"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="151" t="s">
         <v>329</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="169" t="s">
         <v>331</v>
       </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="145"/>
-    </row>
-    <row r="43" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A44" s="44" t="s">
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="154"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="168" t="s">
         <v>332</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A45" s="34" t="s">
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+    </row>
+    <row r="45" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A45" s="151" t="s">
         <v>333</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="173" t="s">
         <v>334</v>
       </c>
-      <c r="D45" s="135" t="s">
+      <c r="D45" s="156" t="s">
         <v>335</v>
       </c>
-      <c r="E45" s="138" t="s">
+      <c r="E45" s="174" t="s">
         <v>336</v>
       </c>
-      <c r="F45" s="135" t="s">
+      <c r="F45" s="156" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A46" s="34" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="151" t="s">
         <v>337</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="164" t="s">
         <v>338</v>
       </c>
-      <c r="D46" s="136"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="136"/>
-    </row>
-    <row r="47" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A47" s="34" t="s">
+      <c r="D46" s="159"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="159"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="151" t="s">
         <v>339</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="164" t="s">
         <v>340</v>
       </c>
-      <c r="D47" s="136"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="136"/>
-    </row>
-    <row r="48" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A48" s="34" t="s">
+      <c r="D47" s="159"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="159"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="151" t="s">
         <v>341</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="151" t="s">
         <v>330</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="136"/>
-    </row>
-    <row r="49" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A49" s="34" t="s">
+      <c r="C48" s="164"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="175"/>
+      <c r="F48" s="159"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="151" t="s">
         <v>342</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="164" t="s">
         <v>343</v>
       </c>
-      <c r="D49" s="136"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="136"/>
-    </row>
-    <row r="50" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A50" s="34" t="s">
+      <c r="D49" s="159"/>
+      <c r="E49" s="175"/>
+      <c r="F49" s="159"/>
+    </row>
+    <row r="50" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A50" s="151" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="151" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="173" t="s">
         <v>345</v>
       </c>
-      <c r="D50" s="136"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="136"/>
-    </row>
-    <row r="51" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A51" s="34" t="s">
+      <c r="D50" s="159"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="159"/>
+    </row>
+    <row r="51" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="151" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="49" t="s">
+      <c r="C51" s="173" t="s">
         <v>347</v>
       </c>
-      <c r="D51" s="136"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="136"/>
-    </row>
-    <row r="52" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A52" s="34" t="s">
+      <c r="D51" s="159"/>
+      <c r="E51" s="175"/>
+      <c r="F51" s="159"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="151" t="s">
         <v>348</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="136"/>
-    </row>
-    <row r="53" spans="1:6" ht="138" x14ac:dyDescent="1">
-      <c r="A53" s="34" t="s">
+      <c r="C52" s="164"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="175"/>
+      <c r="F52" s="159"/>
+    </row>
+    <row r="53" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="151" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="173" t="s">
         <v>350</v>
       </c>
-      <c r="D53" s="136"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="136"/>
-    </row>
-    <row r="54" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A54" s="34" t="s">
+      <c r="D53" s="159"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="159"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="136"/>
-    </row>
-    <row r="55" spans="1:6" ht="225" x14ac:dyDescent="1">
-      <c r="A55" s="34" t="s">
+      <c r="C54" s="164"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="175"/>
+      <c r="F54" s="159"/>
+    </row>
+    <row r="55" spans="1:6" ht="38.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="151" t="s">
         <v>352</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="50" t="s">
-        <v>414</v>
-      </c>
-      <c r="D55" s="137"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="137"/>
-    </row>
-    <row r="56" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-    </row>
-    <row r="57" spans="1:6" ht="92" x14ac:dyDescent="1">
-      <c r="A57" s="34" t="s">
+      <c r="C55" s="176" t="s">
+        <v>547</v>
+      </c>
+      <c r="D55" s="165"/>
+      <c r="E55" s="177"/>
+      <c r="F55" s="165"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="168"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="168"/>
+    </row>
+    <row r="57" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="151" t="s">
         <v>390</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="172" t="s">
+        <v>484</v>
+      </c>
+      <c r="D57" s="158" t="s">
+        <v>396</v>
+      </c>
+      <c r="E57" s="178"/>
+      <c r="F57" s="156" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A58" s="151" t="s">
+        <v>391</v>
+      </c>
+      <c r="B58" s="151" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="153" t="s">
+        <v>485</v>
+      </c>
+      <c r="D58" s="158"/>
+      <c r="E58" s="178"/>
+      <c r="F58" s="159"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="151" t="s">
+        <v>392</v>
+      </c>
+      <c r="B59" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="151" t="s">
+        <v>486</v>
+      </c>
+      <c r="D59" s="158"/>
+      <c r="E59" s="178"/>
+      <c r="F59" s="159"/>
+    </row>
+    <row r="60" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A60" s="170" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60" s="170" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="179" t="s">
+        <v>345</v>
+      </c>
+      <c r="D60" s="158"/>
+      <c r="E60" s="178"/>
+      <c r="F60" s="159"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="151" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="151" t="s">
+        <v>487</v>
+      </c>
+      <c r="D61" s="158"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="159"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="151" t="s">
+        <v>395</v>
+      </c>
+      <c r="B62" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="151" t="s">
+        <v>487</v>
+      </c>
+      <c r="D62" s="158"/>
+      <c r="E62" s="178"/>
+      <c r="F62" s="165"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="168"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="151" t="s">
+        <v>474</v>
+      </c>
+      <c r="B64" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="151" t="s">
+        <v>488</v>
+      </c>
+      <c r="D64" s="158" t="s">
+        <v>478</v>
+      </c>
+      <c r="E64" s="154" t="s">
+        <v>505</v>
+      </c>
+      <c r="F64" s="154" t="s">
         <v>506</v>
       </c>
-      <c r="D57" s="150" t="s">
-        <v>396</v>
-      </c>
-      <c r="E57" s="152"/>
-      <c r="F57" s="141" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="184" x14ac:dyDescent="1">
-      <c r="A58" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="B58" s="34" t="s">
+    </row>
+    <row r="65" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A65" s="170" t="s">
+        <v>393</v>
+      </c>
+      <c r="B65" s="170" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="179" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="158"/>
+      <c r="E65" s="158"/>
+      <c r="F65" s="158"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="151" t="s">
+        <v>475</v>
+      </c>
+      <c r="B66" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="151" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="151" t="s">
+        <v>476</v>
+      </c>
+      <c r="B67" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C67" s="151"/>
+      <c r="D67" s="158"/>
+      <c r="E67" s="158"/>
+      <c r="F67" s="158"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="151" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" s="151" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="151" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="168"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="151" t="s">
+        <v>509</v>
+      </c>
+      <c r="B70" s="151"/>
+      <c r="C70" s="151"/>
+      <c r="D70" s="174" t="s">
         <v>507</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="152"/>
-      <c r="F58" s="142"/>
-    </row>
-    <row r="59" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A59" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="B59" s="34" t="s">
+      <c r="E70" s="174" t="s">
+        <v>508</v>
+      </c>
+      <c r="F70" s="156" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="151" t="s">
+        <v>510</v>
+      </c>
+      <c r="B71" s="151"/>
+      <c r="C71" s="151"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="159"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="151" t="s">
+        <v>511</v>
+      </c>
+      <c r="B72" s="151"/>
+      <c r="C72" s="151"/>
+      <c r="D72" s="175"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="159"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="151" t="s">
+        <v>512</v>
+      </c>
+      <c r="B73" s="151"/>
+      <c r="C73" s="151"/>
+      <c r="D73" s="177"/>
+      <c r="E73" s="177"/>
+      <c r="F73" s="165"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="180"/>
+      <c r="B74" s="181"/>
+      <c r="C74" s="181"/>
+      <c r="D74" s="181"/>
+      <c r="E74" s="181"/>
+      <c r="F74" s="182"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="170" t="s">
+        <v>516</v>
+      </c>
+      <c r="B75" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="D59" s="151"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="142"/>
-    </row>
-    <row r="60" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A60" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="B60" s="46" t="s">
+      <c r="C75" s="151"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="154" t="s">
+        <v>524</v>
+      </c>
+      <c r="F75" s="158" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="151" t="s">
+        <v>515</v>
+      </c>
+      <c r="B76" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="122" t="s">
-        <v>345</v>
-      </c>
-      <c r="D60" s="151"/>
-      <c r="E60" s="152"/>
-      <c r="F60" s="142"/>
-    </row>
-    <row r="61" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A61" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="B61" s="34" t="s">
+      <c r="C76" s="151" t="s">
+        <v>520</v>
+      </c>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="151" t="s">
+        <v>514</v>
+      </c>
+      <c r="B77" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="D61" s="151"/>
-      <c r="E61" s="152"/>
-      <c r="F61" s="142"/>
-    </row>
-    <row r="62" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A62" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="B62" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="D62" s="151"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="143"/>
-    </row>
-    <row r="63" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A63" s="121"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-    </row>
-    <row r="64" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A64" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>510</v>
-      </c>
-      <c r="D64" s="144" t="s">
-        <v>500</v>
-      </c>
-      <c r="E64" s="145" t="s">
-        <v>527</v>
-      </c>
-      <c r="F64" s="148" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="230" x14ac:dyDescent="1">
-      <c r="A65" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="B65" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="122" t="s">
-        <v>345</v>
-      </c>
-      <c r="D65" s="144"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="149"/>
-    </row>
-    <row r="66" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A66" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D66" s="144"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="149"/>
-    </row>
-    <row r="67" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A67" s="34" t="s">
-        <v>498</v>
-      </c>
-      <c r="B67" s="34" t="s">
+      <c r="C77" s="151" t="s">
+        <v>522</v>
+      </c>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+      <c r="F77" s="158"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="151" t="s">
+        <v>517</v>
+      </c>
+      <c r="B78" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="149"/>
-    </row>
-    <row r="68" spans="1:6" ht="46" x14ac:dyDescent="1">
-      <c r="A68" s="34" t="s">
-        <v>499</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D68" s="144"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="149"/>
-    </row>
-    <row r="69" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A70" s="34" t="s">
-        <v>531</v>
-      </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="134"/>
-      <c r="D70" s="155" t="s">
-        <v>529</v>
-      </c>
-      <c r="E70" s="138" t="s">
-        <v>530</v>
-      </c>
-      <c r="F70" s="158" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A71" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="B71" s="34"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="139"/>
-      <c r="F71" s="159"/>
-    </row>
-    <row r="72" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A72" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="B72" s="134"/>
-      <c r="C72" s="134"/>
-      <c r="D72" s="156"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="159"/>
-    </row>
-    <row r="73" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A73" s="34" t="s">
-        <v>534</v>
-      </c>
-      <c r="B73" s="134"/>
-      <c r="C73" s="134"/>
-      <c r="D73" s="157"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="160"/>
-    </row>
-    <row r="74" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A74" s="161"/>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="162"/>
-      <c r="E74" s="162"/>
-      <c r="F74" s="163"/>
-    </row>
-    <row r="75" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A75" s="46" t="s">
-        <v>538</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="153"/>
-      <c r="E75" s="154" t="s">
-        <v>546</v>
-      </c>
-      <c r="F75" s="153" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A76" s="34" t="s">
-        <v>537</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="D76" s="153"/>
-      <c r="E76" s="153"/>
-      <c r="F76" s="153"/>
-    </row>
-    <row r="77" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A77" s="34" t="s">
-        <v>536</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>544</v>
-      </c>
-      <c r="D77" s="153"/>
-      <c r="E77" s="153"/>
-      <c r="F77" s="153"/>
-    </row>
-    <row r="78" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A78" s="34" t="s">
-        <v>539</v>
-      </c>
-      <c r="B78" s="34" t="s">
+      <c r="C78" s="151" t="s">
+        <v>521</v>
+      </c>
+      <c r="D78" s="158"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="151" t="s">
+        <v>518</v>
+      </c>
+      <c r="B79" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="34" t="s">
-        <v>543</v>
-      </c>
-      <c r="D78" s="153"/>
-      <c r="E78" s="153"/>
-      <c r="F78" s="153"/>
-    </row>
-    <row r="79" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A79" s="34" t="s">
-        <v>540</v>
-      </c>
-      <c r="B79" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>541</v>
-      </c>
-      <c r="D79" s="153"/>
-      <c r="E79" s="153"/>
-      <c r="F79" s="153"/>
-    </row>
-    <row r="80" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A80" s="32"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-    </row>
-    <row r="81" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="1">
-      <c r="A81" s="42" t="s">
-        <v>547</v>
-      </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
+      <c r="C79" s="151" t="s">
+        <v>519</v>
+      </c>
+      <c r="D79" s="158"/>
+      <c r="E79" s="158"/>
+      <c r="F79" s="158"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="149"/>
+      <c r="B80" s="168"/>
+      <c r="C80" s="168"/>
+      <c r="D80" s="168"/>
+      <c r="E80" s="168"/>
+      <c r="F80" s="168"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="152" t="s">
+        <v>525</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
     <mergeCell ref="D45:D55"/>
     <mergeCell ref="E45:E55"/>
     <mergeCell ref="F45:F55"/>
@@ -5947,6 +5868,19 @@
     <mergeCell ref="F64:F68"/>
     <mergeCell ref="D57:D62"/>
     <mergeCell ref="E57:E62"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="A74:F74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5958,524 +5892,459 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB8A167-68A9-4C79-B2B1-A6D3124E05D6}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="119" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="147" style="110" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="110" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" style="110" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="110" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" style="110" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.08984375" style="110" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="110" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.36328125" style="110" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46" x14ac:dyDescent="0.35">
-      <c r="A1" s="53"/>
-      <c r="B1" s="167" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="107"/>
+      <c r="B1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="168"/>
-    </row>
-    <row r="2" spans="1:12" ht="92" x14ac:dyDescent="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55" t="s">
+      <c r="C1" s="109"/>
+    </row>
+    <row r="2" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B2" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="113" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="138" x14ac:dyDescent="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="138" x14ac:dyDescent="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55" t="s">
+      <c r="C3" s="113" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="113" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="113" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="115"/>
+      <c r="B6" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="113" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="60" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="113" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="92" x14ac:dyDescent="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="56" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55" t="s">
+      <c r="C8" s="113" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="113" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="138" x14ac:dyDescent="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55" t="s">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A11" s="54"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A12" s="171" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="120" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="64" t="s">
-        <v>486</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A13" s="172"/>
-      <c r="B13" s="65" t="s">
+      <c r="C12" s="122" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="124"/>
+      <c r="B13" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="C13" s="66" t="s">
-        <v>485</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A14" s="172"/>
-      <c r="B14" s="67" t="s">
+      <c r="C13" s="126" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="123"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="124"/>
+      <c r="B14" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="66" t="s">
-        <v>487</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:12" ht="46" x14ac:dyDescent="1">
-      <c r="A15" s="172"/>
-      <c r="B15" s="67" t="s">
+      <c r="C14" s="126" t="s">
+        <v>530</v>
+      </c>
+      <c r="E14" s="131"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="127"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="127"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="124"/>
+      <c r="B15" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="66" t="s">
-        <v>488</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A16" s="173"/>
-      <c r="B16" s="68" t="s">
+      <c r="C15" s="126" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="127"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="127"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="132"/>
+      <c r="B16" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A17" s="54"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="42"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A18" s="54"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="42"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A19" s="164" t="s">
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="127"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="127"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>489</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="71" t="s">
+      <c r="C19" s="137" t="s">
+        <v>532</v>
+      </c>
+      <c r="E19" s="138"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="139"/>
+      <c r="B20" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A21" s="165"/>
-      <c r="B21" s="71" t="s">
+      <c r="C20" s="137" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="139"/>
+      <c r="B21" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="141" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="71" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="142"/>
+      <c r="B22" s="140" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A23" s="169"/>
-      <c r="B23" s="71" t="s">
+      <c r="C22" s="137" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="142"/>
+      <c r="B23" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="34" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A24" s="165"/>
-      <c r="B24" s="71" t="s">
+      <c r="C23" s="137" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="139"/>
+      <c r="B24" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="141" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="71" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="139"/>
+      <c r="B25" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A26" s="165"/>
-      <c r="B26" s="71" t="s">
+      <c r="C25" s="137" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="139"/>
+      <c r="B26" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="143" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="71" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="142"/>
+      <c r="B27" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A28" s="170"/>
-      <c r="B28" s="72" t="s">
+      <c r="C27" s="143" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="144"/>
+      <c r="B28" s="145" t="s">
         <v>208</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="143" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A29" s="54"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="42"/>
-    </row>
-    <row r="30" spans="1:9" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A30" s="54"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="42"/>
-    </row>
-    <row r="31" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A31" s="164" t="s">
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="135" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="137" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="46" x14ac:dyDescent="1">
-      <c r="A32" s="169"/>
-      <c r="B32" s="71" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="142"/>
+      <c r="B32" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="146" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A33" s="169"/>
-      <c r="B33" s="71" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="142"/>
+      <c r="B33" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="146" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A34" s="165"/>
-      <c r="B34" s="71" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="139"/>
+      <c r="B34" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="35" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="92.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A35" s="166"/>
-      <c r="B35" s="71" t="s">
+      <c r="C34" s="143" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="147"/>
+      <c r="B35" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="35" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A36" s="54"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="42"/>
-    </row>
-    <row r="37" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A37" s="54"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="42"/>
-    </row>
-    <row r="38" spans="1:3" ht="184" x14ac:dyDescent="1">
-      <c r="A38" s="74" t="s">
+      <c r="C35" s="143" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="35" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A39" s="74" t="s">
+      <c r="C38" s="143" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="146" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A40" s="54"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="42"/>
-    </row>
-    <row r="41" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A41" s="54"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="42"/>
-    </row>
-    <row r="42" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A42" s="164" t="s">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A43" s="166"/>
-      <c r="B43" s="55" t="s">
+      <c r="C42" s="137" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="147"/>
+      <c r="B43" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="146" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="42"/>
-    </row>
-    <row r="45" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A45" s="54"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="42"/>
-    </row>
-    <row r="46" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A46" s="164" t="s">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="137" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A47" s="165"/>
-      <c r="B47" s="55" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="139"/>
+      <c r="B47" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A48" s="165"/>
-      <c r="B48" s="55" t="s">
+      <c r="C47" s="137" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="139"/>
+      <c r="B48" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="137" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A49" s="165"/>
-      <c r="B49" s="55" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="139"/>
+      <c r="B49" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A50" s="166"/>
-      <c r="B50" s="55" t="s">
+      <c r="C49" s="137" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="147"/>
+      <c r="B50" s="112" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="42"/>
-    </row>
-    <row r="52" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A52" s="54"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="42"/>
-    </row>
-    <row r="53" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A53" s="164" t="s">
+      <c r="C50" s="137" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="112" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="137" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="46" x14ac:dyDescent="1">
-      <c r="A54" s="165"/>
-      <c r="B54" s="55" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="139"/>
+      <c r="B54" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="146" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="46.5" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="A55" s="166"/>
-      <c r="B55" s="55" t="s">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="147"/>
+      <c r="B55" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="146" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6499,7 +6368,7 @@
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B20" sqref="B20:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6517,42 +6386,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A1" s="23"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="78" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="78" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="23"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="15"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -6571,33 +6440,33 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="81" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="81" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="J3" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -6616,33 +6485,33 @@
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="81" t="s">
+      <c r="I4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="23"/>
+      <c r="K4" s="15"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -6661,33 +6530,33 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="81" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="15"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -6706,33 +6575,33 @@
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="92" x14ac:dyDescent="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="84" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="81" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -6751,33 +6620,33 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="81" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="J7" s="81" t="s">
+      <c r="J7" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -6796,31 +6665,31 @@
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="81" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="81" t="s">
+      <c r="F8" s="34"/>
+      <c r="G8" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="24"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -6839,29 +6708,29 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="83" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="81" t="s">
+      <c r="F9" s="34"/>
+      <c r="G9" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="81" t="s">
+      <c r="J9" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="24"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -6880,29 +6749,29 @@
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="81" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="81" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="24"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -6921,17 +6790,17 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -6950,17 +6819,17 @@
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="23"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -6979,20 +6848,20 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="78" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="8"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -7010,24 +6879,24 @@
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="81" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="81" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="11"/>
+      <c r="G14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -7045,24 +6914,24 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="81" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="81" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="81" t="s">
+      <c r="F15" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="11"/>
+      <c r="G15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -7080,23 +6949,23 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="81" t="s">
+      <c r="D16" s="34"/>
+      <c r="E16" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="81" t="s">
+      <c r="F16" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="23"/>
+      <c r="G16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -7115,23 +6984,23 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="83" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="23"/>
+      <c r="G17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -7150,23 +7019,23 @@
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="81" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="81" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="24"/>
+      <c r="G18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -7185,13 +7054,13 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="23"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -7210,15 +7079,15 @@
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="92" x14ac:dyDescent="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="87" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="23"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="15"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -7237,17 +7106,17 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="81" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="23"/>
+      <c r="D21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="15"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -7266,17 +7135,17 @@
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="81" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="23"/>
+      <c r="D22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -7295,112 +7164,112 @@
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="81" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="23"/>
+      <c r="D23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:27" ht="46" x14ac:dyDescent="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:27" ht="46" x14ac:dyDescent="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="J25" s="42"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:27" ht="46" x14ac:dyDescent="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="J26" s="24"/>
     </row>
     <row r="27" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="J27" s="24"/>
     </row>
     <row r="28" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="J28" s="24"/>
     </row>
     <row r="29" spans="1:27" ht="46" x14ac:dyDescent="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="J29" s="42"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:27" ht="46" x14ac:dyDescent="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="J30" s="42"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="J30" s="24"/>
     </row>
     <row r="31" spans="1:27" ht="46" x14ac:dyDescent="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:27" ht="46" x14ac:dyDescent="1">
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -7418,7 +7287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1ABF05-0D0D-42ED-A0CF-7BC5645C2770}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7429,90 +7298,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="22" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="43" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="22" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="1">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="31" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -7570,313 +7439,313 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA571912-6201-4F82-A75F-9FD31C5CCD2E}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="64.453125" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="255.6328125" style="123" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="42"/>
+    <col min="1" max="1" width="64.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="255.6328125" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="44" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="184" x14ac:dyDescent="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="92" x14ac:dyDescent="1">
+      <c r="A3" s="94"/>
+      <c r="B3" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="1">
+      <c r="A4" s="94"/>
+      <c r="B4" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="138" x14ac:dyDescent="1">
+      <c r="A5" s="94"/>
+      <c r="B5" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="92" x14ac:dyDescent="1">
+      <c r="A6" s="94"/>
+      <c r="B6" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="92" x14ac:dyDescent="1">
+      <c r="A7" s="95"/>
+      <c r="B7" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="1">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="1">
+      <c r="A9" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="1">
+      <c r="A10" s="94"/>
+      <c r="B10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="92" x14ac:dyDescent="1">
+      <c r="A11" s="94"/>
+      <c r="B11" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="92" x14ac:dyDescent="1">
+      <c r="A12" s="94"/>
+      <c r="B12" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="1">
+      <c r="A13" s="94"/>
+      <c r="B13" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="92" x14ac:dyDescent="1">
+      <c r="A14" s="94"/>
+      <c r="B14" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="1">
+      <c r="A15" s="94"/>
+      <c r="B15" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="1">
+      <c r="A16" s="95"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="99"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="1">
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+    </row>
+    <row r="18" spans="1:3" ht="184" x14ac:dyDescent="1">
+      <c r="A18" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="35" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="1">
+      <c r="A21" s="92"/>
+      <c r="B21" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="1">
-      <c r="A4" s="179"/>
-      <c r="B4" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="138" x14ac:dyDescent="1">
-      <c r="A5" s="179"/>
-      <c r="B5" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A7" s="180"/>
-      <c r="B7" s="34" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="1">
-      <c r="A9" s="178" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="1">
-      <c r="A10" s="179"/>
-      <c r="B10" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A11" s="179"/>
-      <c r="B11" s="35" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="1">
+      <c r="A23" s="89" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="1">
+      <c r="A24" s="90"/>
+      <c r="B24" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="1">
+      <c r="A25" s="90"/>
+      <c r="B25" s="80" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="1">
+      <c r="A26" s="90"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="77" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="35" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="1">
+      <c r="A27" s="90"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="77" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="1">
+      <c r="A28" s="90"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="78" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="1">
+      <c r="A29" s="90"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="78" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="1">
+      <c r="A30" s="91"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="79" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="1">
+      <c r="A31" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="B31" s="83"/>
+      <c r="C31" s="76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="1">
+      <c r="A32" s="90"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="1">
+      <c r="A33" s="90"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="77" t="s">
         <v>494</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="92" x14ac:dyDescent="1">
-      <c r="A14" s="179"/>
-      <c r="B14" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="1">
-      <c r="A15" s="179"/>
-      <c r="B15" s="181" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" s="183" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="1">
-      <c r="A16" s="180"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="184"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-    </row>
-    <row r="18" spans="1:3" ht="184" x14ac:dyDescent="1">
-      <c r="A18" s="177" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="1">
-      <c r="A19" s="177"/>
-      <c r="B19" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="1">
-      <c r="A20" s="177"/>
-      <c r="B20" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="1">
-      <c r="A21" s="177"/>
-      <c r="B21" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="1">
-      <c r="A23" s="174" t="s">
-        <v>522</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>511</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="1">
-      <c r="A24" s="175"/>
-      <c r="B24" s="128" t="s">
-        <v>512</v>
-      </c>
-      <c r="C24" s="125" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="1">
-      <c r="A25" s="175"/>
-      <c r="B25" s="128" t="s">
-        <v>513</v>
-      </c>
-      <c r="C25" s="125" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="1">
-      <c r="A26" s="175"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="125" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="1">
-      <c r="A27" s="175"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="125" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="1">
-      <c r="A28" s="175"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="126" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="1">
-      <c r="A29" s="175"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="126" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="1">
-      <c r="A30" s="176"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="127" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="1">
-      <c r="A31" s="174" t="s">
-        <v>523</v>
-      </c>
-      <c r="B31" s="131"/>
-      <c r="C31" s="124" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="1">
-      <c r="A32" s="175"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="125" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="1">
-      <c r="A33" s="175"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="125" t="s">
-        <v>516</v>
-      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="1">
-      <c r="A34" s="175"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="125" t="s">
-        <v>517</v>
+      <c r="A34" s="90"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="77" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="1">
-      <c r="A35" s="175"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="125" t="s">
-        <v>518</v>
+      <c r="A35" s="90"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="77" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="1">
-      <c r="A36" s="176"/>
-      <c r="B36" s="130"/>
-      <c r="C36" s="127" t="s">
-        <v>524</v>
+      <c r="A36" s="91"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="79" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7918,237 +7787,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="H1" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" ht="46" x14ac:dyDescent="1">
+      <c r="E3" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" ht="46" x14ac:dyDescent="1">
+      <c r="E4" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" ht="46" x14ac:dyDescent="1">
+      <c r="E5" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" ht="46" x14ac:dyDescent="1">
+      <c r="E6" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="J6" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="J2" s="34" t="s">
+    </row>
+    <row r="7" spans="5:10" ht="46" x14ac:dyDescent="1">
+      <c r="E7" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>365</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="3" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E3" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="I7" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J7" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="J3" s="34" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="4" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E4" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E5" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="I5" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E6" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>477</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>478</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E7" s="81" t="s">
-        <v>364</v>
-      </c>
-      <c r="F7" s="81" t="s">
-        <v>365</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>481</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>482</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>483</v>
-      </c>
     </row>
     <row r="8" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="36" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="5:10" ht="46" x14ac:dyDescent="1">
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="5:8" ht="46" x14ac:dyDescent="1">
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="5:8" ht="46" x14ac:dyDescent="1">
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="5:8" ht="46" x14ac:dyDescent="1">
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -8167,251 +8036,251 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="71.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.54296875" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.08984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="44.90625" style="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.36328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="71.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.54296875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="96"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A3" s="97"/>
-      <c r="E3" s="98" t="s">
+      <c r="A3" s="52"/>
+      <c r="E3" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="99"/>
+      <c r="N3" s="54"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A4" s="97"/>
-      <c r="E4" s="52" t="s">
+      <c r="A4" s="52"/>
+      <c r="E4" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="99"/>
+      <c r="N4" s="54"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A5" s="97"/>
-      <c r="E5" s="100" t="s">
+      <c r="A5" s="52"/>
+      <c r="E5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="100" t="s">
+      <c r="F5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="99"/>
+      <c r="N5" s="54"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="E6" s="189" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="E6" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="99"/>
+      <c r="N6" s="54"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A7" s="97"/>
-      <c r="E7" s="190"/>
-      <c r="N7" s="99"/>
+      <c r="A7" s="52"/>
+      <c r="E7" s="105"/>
+      <c r="N7" s="54"/>
     </row>
     <row r="8" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A8" s="97"/>
-      <c r="E8" s="191"/>
-      <c r="N8" s="99"/>
+      <c r="A8" s="52"/>
+      <c r="E8" s="106"/>
+      <c r="N8" s="54"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A9" s="97"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="101" t="s">
+      <c r="A9" s="52"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="96"/>
-      <c r="N9" s="99"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="51"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="F10" s="102" t="s">
+      <c r="A10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="F10" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="N10" s="99"/>
+      <c r="H10" s="54"/>
+      <c r="N10" s="54"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="H11" s="99"/>
-      <c r="N11" s="99"/>
+      <c r="A11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="H11" s="54"/>
+      <c r="N11" s="54"/>
     </row>
     <row r="12" spans="1:14" ht="40" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="108" t="s">
+      <c r="J12" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="108" t="s">
+      <c r="K12" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="109" t="s">
+      <c r="N12" s="64" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="105" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="187" t="s">
+      <c r="K13" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="110"/>
-      <c r="N13" s="99"/>
+      <c r="L13" s="65"/>
+      <c r="N13" s="54"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A14" s="186"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="106" t="s">
+      <c r="A14" s="101"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="K14" s="188"/>
-      <c r="L14" s="110"/>
-      <c r="N14" s="99"/>
+      <c r="H14" s="54"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="65"/>
+      <c r="N14" s="54"/>
     </row>
     <row r="15" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="K15" s="116" t="s">
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="K15" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="110"/>
-      <c r="N15" s="99"/>
+      <c r="L15" s="65"/>
+      <c r="N15" s="54"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A16" s="97"/>
-      <c r="B16" s="112" t="s">
+      <c r="A16" s="52"/>
+      <c r="B16" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="117" t="s">
+      <c r="K16" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="117" t="s">
+      <c r="L16" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="99"/>
+      <c r="N16" s="54"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A17" s="97"/>
-      <c r="K17" s="52" t="s">
+      <c r="A17" s="52"/>
+      <c r="K17" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="99"/>
+      <c r="N17" s="54"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.8">
-      <c r="A18" s="97"/>
-      <c r="K18" s="118" t="s">
+      <c r="A18" s="52"/>
+      <c r="K18" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="118" t="s">
+      <c r="L18" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="99"/>
+      <c r="N18" s="54"/>
     </row>
     <row r="19" spans="1:14" ht="36.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A19" s="113"/>
-      <c r="B19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="114"/>
-      <c r="N19" s="115"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="70"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.8">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="20" t="s">
         <v>121</v>
       </c>
     </row>
